--- a/DateBase/orders/Fresh bloom Flowers_2025-11-2.xlsx
+++ b/DateBase/orders/Fresh bloom Flowers_2025-11-2.xlsx
@@ -871,6 +871,9 @@
       <c r="G2" t="str">
         <v>010105102010101010155665105510101014101010304010524201010106612510871015</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
